--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1904134.203152996</v>
+        <v>2011363.644551084</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9933664.635067992</v>
+        <v>9947113.080447635</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.7206830453287</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>16.33948356692765</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>50.98074812542853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6942204073858</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>27.64190823308189</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>347.9690813599218</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>20.77256677351849</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>71.66827133892083</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>76.44833930763974</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>93.4583209939527</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>88.26520231092823</v>
+        <v>66.54803736426796</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>13.72582864853732</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>100.5140508960357</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>95.81917536083697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1816,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>113.541358075969</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>87.2147151485303</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.4636264596498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484882</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3004,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>180.9172429496413</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634817</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>113.6427030833212</v>
+        <v>109.5557012899563</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>156.523885790703</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>177.6965697803386</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>133.8410052537958</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.32755894284</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2545.834799544672</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2545.834799544672</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2292.253738808852</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1961.190851465281</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1961.190851465281</v>
       </c>
       <c r="X2" t="n">
-        <v>2209.570673130041</v>
+        <v>1587.725093204202</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.570673130041</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4403,28 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1584.950414897297</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>157.1019332386098</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1134.226501951986</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1134.226501951986</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>775.9608033452359</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>390.1725507469917</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>383.2270499977882</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993394</v>
+        <v>1897.831592188878</v>
       </c>
       <c r="W5" t="n">
-        <v>2768.144153427816</v>
+        <v>1897.831592188878</v>
       </c>
       <c r="X5" t="n">
-        <v>2394.678395166736</v>
+        <v>1524.365833927798</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>1134.226501951986</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>496.0729413699647</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>790.7764984014361</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>754.9746608886195</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1216.838891429093</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>927.7205539329311</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>673.0360657270443</v>
       </c>
       <c r="W7" t="n">
-        <v>1203.756790930167</v>
+        <v>673.0360657270443</v>
       </c>
       <c r="X7" t="n">
-        <v>975.7672400321496</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="Y7" t="n">
-        <v>754.9746608886195</v>
+        <v>600.6438724554071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1407.319888150869</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1407.319888150869</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400153</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926623</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926623</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2184.059060190803</v>
       </c>
       <c r="V8" t="n">
-        <v>3120.91280869793</v>
+        <v>2184.059060190803</v>
       </c>
       <c r="W8" t="n">
-        <v>2768.144153427816</v>
+        <v>2184.059060190803</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>2184.059060190803</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1793.919728214991</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>777.6069060507748</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>617.5020034330385</v>
+        <v>585.4329422525257</v>
       </c>
       <c r="C10" t="n">
-        <v>617.5020034330385</v>
+        <v>416.4967593246188</v>
       </c>
       <c r="D10" t="n">
-        <v>617.5020034330385</v>
+        <v>266.380119912283</v>
       </c>
       <c r="E10" t="n">
-        <v>469.5889098506453</v>
+        <v>118.4670263298899</v>
       </c>
       <c r="F10" t="n">
-        <v>469.5889098506453</v>
+        <v>118.4670263298899</v>
       </c>
       <c r="G10" t="n">
-        <v>301.8860732253643</v>
+        <v>118.4670263298899</v>
       </c>
       <c r="H10" t="n">
-        <v>155.668886443222</v>
+        <v>118.4670263298899</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.884232784814</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>767.0814070827654</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>767.0814070827654</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>767.0814070827654</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.5020034330385</v>
+        <v>767.0814070827654</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5063,10 +5065,10 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096665</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978459</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>274.8772357154528</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5236,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>414.4022433768874</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>2418.621364762388</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>2913.946970978147</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>3511.325458604698</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>4138.923422159305</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5704,19 +5706,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,10 +5770,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,16 +5785,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>4285.815356953929</v>
       </c>
       <c r="O21" t="n">
-        <v>1963.765362972544</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2985.713220456422</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>2816.777037528515</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661313</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,19 +6074,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6424,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6454,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2588.787486630498</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>2588.787486630498</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F34" t="n">
-        <v>2588.787486630498</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>2421.591387345378</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6959,28 +6961,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>4285.815356953929</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3012.408157764292</v>
+        <v>3161.37108304703</v>
       </c>
       <c r="C37" t="n">
-        <v>2843.471974836385</v>
+        <v>2992.434900119124</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661314</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.25592267304</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636079</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X37" t="n">
-        <v>3414.849201738062</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y37" t="n">
-        <v>3194.056622594532</v>
+        <v>3343.01954787727</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349512</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>1089.575996120531</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>920.6398131926237</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>770.5231737802879</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>622.6100801978948</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>475.7201326999844</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782997</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038383</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797783</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2267.47159895366</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
   </sheetData>
@@ -8064,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>211.0329012241552</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>224.3355197601771</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>73.66059580999888</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>186.4490126143862</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-1.063451355892333e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.6952193743939</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>125.1956044930014</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>69.70496293143188</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>32.89260457060013</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.40075786968205</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.36835372228748</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>180.5487903941883</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>105.2672314396028</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219412</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.97276993489113</v>
+        <v>39.05977172825608</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>9.000252501565797</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>3.329716221305972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H43" t="n">
-        <v>40.32043864788574</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>152.3434691354484</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>869413.1859376455</v>
+        <v>876543.4989389306</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>869413.1859376455</v>
+        <v>876543.4989389306</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854823.2572546545</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.0927060545</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808323</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808324</v>
+        <v>134318.0002618639</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26430,7 +26432,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426732025</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26439,19 +26441,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426731955</v>
-      </c>
       <c r="N4" t="n">
-        <v>8117.312426732021</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767278.3173726297</v>
+        <v>-767278.3173726292</v>
       </c>
       <c r="C6" t="n">
-        <v>176052.2095334161</v>
+        <v>347473.4662032904</v>
       </c>
       <c r="D6" t="n">
-        <v>379490.9511455219</v>
+        <v>347473.4662032901</v>
       </c>
       <c r="E6" t="n">
-        <v>130350.3157250105</v>
+        <v>-51722.66409218116</v>
       </c>
       <c r="F6" t="n">
+        <v>455762.7775323655</v>
+      </c>
+      <c r="G6" t="n">
+        <v>455762.7775323655</v>
+      </c>
+      <c r="H6" t="n">
         <v>455762.7775323656</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>455762.7775323652</v>
       </c>
-      <c r="H6" t="n">
-        <v>455762.7775323655</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>288157.599722383</v>
+      </c>
+      <c r="K6" t="n">
         <v>455762.7775323653</v>
-      </c>
-      <c r="J6" t="n">
-        <v>288157.5997223827</v>
-      </c>
-      <c r="K6" t="n">
-        <v>406652.6848263111</v>
       </c>
       <c r="L6" t="n">
         <v>455762.7775323653</v>
       </c>
       <c r="M6" t="n">
-        <v>370707.7495968537</v>
+        <v>323155.4838034386</v>
       </c>
       <c r="N6" t="n">
         <v>455762.7775323655</v>
       </c>
       <c r="O6" t="n">
-        <v>455762.7775323652</v>
+        <v>455762.7775323656</v>
       </c>
       <c r="P6" t="n">
-        <v>455762.7775323655</v>
+        <v>455762.7775323657</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232.0131586181519</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>107.1127318318667</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.1568951983995</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>103.0154349816514</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>383.9057945398721</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27188735749121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>265.7504315630725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>154.0413840501163</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>278.2347023130432</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>234.2939374761822</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>8.087218098909858</v>
+        <v>38.24855783963265</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28618,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29287,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>233.3139244897929</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.605272155109</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>514.6953762540926</v>
       </c>
       <c r="P21" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32792,10 +32794,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33044,7 +33046,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L30" t="n">
-        <v>430.400187030115</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>514.6953762540926</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539307</v>
       </c>
       <c r="M39" t="n">
-        <v>169.2687847673336</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>565.8030433278957</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>577.9642335061958</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>474.0150488837094</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>260.2480920534836</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977087</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>484.1293732522361</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634693</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977087</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>94.75954470991874</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075003</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>372.0991318096482</v>
       </c>
       <c r="P21" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L30" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>372.0991318096482</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740565</v>
       </c>
       <c r="M39" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295732</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>423.6690094058774</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2011363.644551084</v>
+        <v>2007226.487300932</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>130.123325382248</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>16.33948356692765</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>122.6942204073858</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>27.64190823308189</v>
+        <v>348.7437689906939</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>110.3838034696614</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>71.66827133892083</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>76.44833930763974</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>200.729510043755</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>66.54803736426796</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>100.5140508960357</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>21.90286287505377</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>212.5602966632236</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>251.2117044543527</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>45.16086499484882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>109.5557012899563</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>156.523885790703</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3793,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>133.8410052537958</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1201.12525314008</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="C2" t="n">
-        <v>832.1627361996682</v>
+        <v>1342.44319045502</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>984.1774918482697</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>598.3892392500254</v>
       </c>
       <c r="F2" t="n">
         <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2545.834799544672</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2545.834799544672</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2292.253738808852</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1961.190851465281</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1961.190851465281</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X2" t="n">
-        <v>1587.725093204202</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.725093204202</v>
+        <v>1711.405707395432</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386098</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>157.1019332386098</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386098</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1134.226501951986</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="C5" t="n">
-        <v>1134.226501951986</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="D5" t="n">
-        <v>775.9608033452359</v>
+        <v>1266.6610264439</v>
       </c>
       <c r="E5" t="n">
-        <v>390.1725507469917</v>
+        <v>880.8727738456555</v>
       </c>
       <c r="F5" t="n">
-        <v>383.2270499977882</v>
+        <v>469.8868690560479</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532449</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532449</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188878</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188878</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.365833927798</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1134.226501951986</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>496.0729413699647</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>790.7764984014361</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1154.038517360656</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600.6438724554071</v>
+        <v>944.587906063767</v>
       </c>
       <c r="C7" t="n">
-        <v>600.6438724554071</v>
+        <v>775.6517231358602</v>
       </c>
       <c r="D7" t="n">
-        <v>600.6438724554071</v>
+        <v>625.5350837235244</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>477.6219901411313</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>330.7320426432209</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>162.7455779514995</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429093</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329311</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>673.0360657270443</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>673.0360657270443</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>600.6438724554071</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="Y7" t="n">
-        <v>600.6438724554071</v>
+        <v>1126.236370894007</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1407.319888150869</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="C8" t="n">
-        <v>1407.319888150869</v>
+        <v>685.5887159403464</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>327.3230173335959</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>327.3230173335959</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>320.3775165843925</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4801,55 +4801,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800306</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926623</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926623</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190803</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190803</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190803</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X8" t="n">
-        <v>2184.059060190803</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1793.919728214991</v>
+        <v>1441.15107294488</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,31 +4880,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310611</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507748</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009995</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>585.4329422525257</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>416.4967593246188</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>266.380119912283</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>118.4670263298899</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>118.4670263298899</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>118.4670263298899</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>118.4670263298899</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312189</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784814</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827654</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>767.0814070827654</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>767.0814070827654</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>767.0814070827654</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2418.621364762388</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>2913.946970978147</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3511.325458604698</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>4138.923422159305</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>4285.815356953929</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429802</v>
@@ -6381,55 +6381,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.667160263526</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263526</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4285.815356953929</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3161.37108304703</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2992.434900119124</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3343.01954787727</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7177,22 +7177,22 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1089.575996120531</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>920.6398131926237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>770.5231737802879</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>622.6100801978948</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>475.7201326999844</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578601</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1720.006590992318</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101294</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122191</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7727,25 +7727,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1842.268145910715</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1587.583657704828</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1070.17693676985</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>224.3355197601771</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>73.66059580999888</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
-        <v>186.4490126143862</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-5.458725572646025e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.063451355892333e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>125.1956044930014</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.3918499711701</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>73.62417772602058</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>34.97276993489146</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>180.5487903941883</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>127.7255247667961</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>39.05977172825608</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>9.000252501565797</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>24.81829093850962</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>152.3434691354484</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>876543.4989389305</v>
+        <v>876543.4989389306</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>876543.4989389306</v>
+        <v>876543.4989389305</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>876543.4989389306</v>
+        <v>876543.4989389305</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
@@ -26352,10 +26352,10 @@
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618639</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426732025</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26441,19 +26441,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426732038</v>
+        <v>8117.312426731936</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767278.3173726292</v>
+        <v>-767278.3173726294</v>
       </c>
       <c r="C6" t="n">
-        <v>347473.4662032904</v>
+        <v>347473.4662032898</v>
       </c>
       <c r="D6" t="n">
-        <v>347473.4662032901</v>
+        <v>347473.4662032899</v>
       </c>
       <c r="E6" t="n">
-        <v>-51722.66409218116</v>
+        <v>-52070.04334653759</v>
       </c>
       <c r="F6" t="n">
-        <v>455762.7775323655</v>
+        <v>455415.3982780085</v>
       </c>
       <c r="G6" t="n">
-        <v>455762.7775323655</v>
+        <v>455415.3982780084</v>
       </c>
       <c r="H6" t="n">
-        <v>455762.7775323656</v>
+        <v>455415.3982780085</v>
       </c>
       <c r="I6" t="n">
-        <v>455762.7775323652</v>
+        <v>455415.3982780085</v>
       </c>
       <c r="J6" t="n">
-        <v>288157.599722383</v>
+        <v>287810.2204680263</v>
       </c>
       <c r="K6" t="n">
-        <v>455762.7775323653</v>
+        <v>455415.3982780086</v>
       </c>
       <c r="L6" t="n">
-        <v>455762.7775323653</v>
+        <v>455415.3982780086</v>
       </c>
       <c r="M6" t="n">
-        <v>323155.4838034386</v>
+        <v>322808.1045490817</v>
       </c>
       <c r="N6" t="n">
-        <v>455762.7775323655</v>
+        <v>455415.3982780085</v>
       </c>
       <c r="O6" t="n">
-        <v>455762.7775323656</v>
+        <v>455415.3982780085</v>
       </c>
       <c r="P6" t="n">
-        <v>455762.7775323657</v>
+        <v>455415.3982780084</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>276.7527203594634</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>107.1127318318667</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>103.0154349816514</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>383.9057945398721</v>
+        <v>62.80393378226006</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>36.86770568546743</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>154.0413840501163</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>278.2347023130432</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>210.818192729199</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>38.24855783963265</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.605272155109</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>514.6953762540926</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,10 +33496,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>514.6953762540926</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,10 +33733,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319844</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043726</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4567226539307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>565.8030433278957</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>474.0150488837094</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>260.2480920534836</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000385</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977087</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091734</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>484.1293732522361</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977087</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075003</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>372.0991318096482</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>372.0991318096482</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875399</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>138.9023428740565</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,19 +38104,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>423.6690094058774</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2007226.487300932</v>
+        <v>2008987.017603717</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>18.10788372759638</v>
       </c>
       <c r="F2" t="n">
-        <v>130.123325382248</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>124.0961330064688</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>348.7437689906939</v>
+        <v>348.4484561756261</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>36.29948086284216</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>110.3838034696614</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>200.729510043755</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>136.1962873497748</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>50.98074812542813</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542853</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>35.41770597126713</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>176.5196562849264</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>174.2996212791701</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>212.5602966632236</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.79687029691044</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>20.43112068613155</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>113.6427030833208</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>251.2117044543527</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>115.4764219077142</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994143007</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1711.405707395432</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="C2" t="n">
-        <v>1342.44319045502</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="D2" t="n">
-        <v>984.1774918482697</v>
+        <v>1266.6610264439</v>
       </c>
       <c r="E2" t="n">
-        <v>598.3892392500254</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656512</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.405707395432</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1711.405707395432</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429759</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744476</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>474.6261488621955</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>324.5095094498597</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>176.5964158674666</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.92672505065</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.92672505065</v>
+        <v>1862.313924116173</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.6610264439</v>
+        <v>1504.048225509422</v>
       </c>
       <c r="E5" t="n">
-        <v>880.8727738456555</v>
+        <v>1118.259972911178</v>
       </c>
       <c r="F5" t="n">
-        <v>469.8868690560479</v>
+        <v>707.2740681215703</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4600,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.92672505065</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.92672505065</v>
+        <v>2231.276441056584</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.587906063767</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>775.6517231358602</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>625.5350837235244</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>477.6219901411313</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>330.7320426432209</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>162.7455779514995</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.028950037537</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.236370894007</v>
+        <v>1124.34930177307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1054.551232880758</v>
+        <v>1467.671350819693</v>
       </c>
       <c r="C8" t="n">
-        <v>685.5887159403464</v>
+        <v>1467.671350819693</v>
       </c>
       <c r="D8" t="n">
-        <v>327.3230173335959</v>
+        <v>1467.671350819693</v>
       </c>
       <c r="E8" t="n">
-        <v>327.3230173335959</v>
+        <v>1081.883098221448</v>
       </c>
       <c r="F8" t="n">
-        <v>320.3775165843925</v>
+        <v>670.8971934318408</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>255.1924431561297</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190806</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.290404920692</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1831.290404920692</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1441.15107294488</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>716.5983551657494</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>547.6621722378425</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>397.5455328255067</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>249.6324392431136</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452032</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452032</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>898.2468199959891</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925226</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101294</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2268.660400464173</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2049.058935487114</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,16 +5278,16 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2203.85715631835</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1984.25569134129</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1695.180464685488</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>166.3387542569723</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>166.3387542569723</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>210.4595134598044</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241562</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-5.458725572646025e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>4.506629716718152</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>6.726664722474453</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>73.62417772602058</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>9.468966021655078</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.97276993489153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>34.97276993489146</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>119.8635921600918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.81829093850962</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767823</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>876543.4989389306</v>
+        <v>876543.4989389305</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>876543.4989389305</v>
+        <v>876543.4989389306</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731975</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26441,7 +26441,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767278.3173726294</v>
+        <v>-767278.3173726297</v>
       </c>
       <c r="C6" t="n">
-        <v>347473.4662032898</v>
+        <v>347473.4662032904</v>
       </c>
       <c r="D6" t="n">
-        <v>347473.4662032899</v>
+        <v>347473.46620329</v>
       </c>
       <c r="E6" t="n">
-        <v>-52070.04334653759</v>
+        <v>-51757.40201761646</v>
       </c>
       <c r="F6" t="n">
-        <v>455415.3982780085</v>
+        <v>455728.0396069296</v>
       </c>
       <c r="G6" t="n">
-        <v>455415.3982780084</v>
+        <v>455728.0396069292</v>
       </c>
       <c r="H6" t="n">
-        <v>455415.3982780085</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="I6" t="n">
-        <v>455415.3982780085</v>
+        <v>455728.0396069295</v>
       </c>
       <c r="J6" t="n">
-        <v>287810.2204680263</v>
+        <v>288122.8617969469</v>
       </c>
       <c r="K6" t="n">
-        <v>455415.3982780086</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="L6" t="n">
-        <v>455415.3982780086</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="M6" t="n">
-        <v>322808.1045490817</v>
+        <v>323120.745878003</v>
       </c>
       <c r="N6" t="n">
-        <v>455415.3982780085</v>
+        <v>455728.0396069296</v>
       </c>
       <c r="O6" t="n">
-        <v>455415.3982780085</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="P6" t="n">
-        <v>455415.3982780084</v>
+        <v>455728.0396069296</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>363.8224863446654</v>
       </c>
       <c r="F2" t="n">
-        <v>276.7527203594634</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>21.3249150164624</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181399</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>62.80393378226006</v>
+        <v>63.09924659732792</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>143.5324993190951</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36.86770568546743</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>210.818192729199</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>164.8222652126306</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>96.27076102970071</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>397.620397467641</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>397.6203974676406</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
